--- a/Code/Results/Cases/Case_4_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.028561539836526</v>
+        <v>1.053847231077304</v>
       </c>
       <c r="D2">
-        <v>1.044421590740382</v>
+        <v>1.058805806406875</v>
       </c>
       <c r="E2">
-        <v>1.046431804472882</v>
+        <v>1.066879532602205</v>
       </c>
       <c r="F2">
-        <v>1.053520797131552</v>
+        <v>1.072929736507548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056626312486673</v>
+        <v>1.048817468724508</v>
       </c>
       <c r="J2">
-        <v>1.04992029385468</v>
+        <v>1.058862427238636</v>
       </c>
       <c r="K2">
-        <v>1.055294899580955</v>
+        <v>1.061537036081128</v>
       </c>
       <c r="L2">
-        <v>1.057280060442318</v>
+        <v>1.069588895151856</v>
       </c>
       <c r="M2">
-        <v>1.06428165338597</v>
+        <v>1.075622945727848</v>
       </c>
       <c r="N2">
-        <v>1.051411301099495</v>
+        <v>1.060366133338532</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.032722369522323</v>
+        <v>1.054742590320598</v>
       </c>
       <c r="D3">
-        <v>1.047529276466706</v>
+        <v>1.059498739917605</v>
       </c>
       <c r="E3">
-        <v>1.050114100762454</v>
+        <v>1.067723206866749</v>
       </c>
       <c r="F3">
-        <v>1.057180765893748</v>
+        <v>1.073766675267965</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057880008787573</v>
+        <v>1.049042978546626</v>
       </c>
       <c r="J3">
-        <v>1.052359066614956</v>
+        <v>1.059409094889193</v>
       </c>
       <c r="K3">
-        <v>1.057588091399457</v>
+        <v>1.062044381979079</v>
       </c>
       <c r="L3">
-        <v>1.060143533735532</v>
+        <v>1.070248177186204</v>
       </c>
       <c r="M3">
-        <v>1.067130773925815</v>
+        <v>1.076276672889828</v>
       </c>
       <c r="N3">
-        <v>1.053853537196821</v>
+        <v>1.060913577319857</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035365753974471</v>
+        <v>1.05532267906609</v>
       </c>
       <c r="D4">
-        <v>1.04950670804881</v>
+        <v>1.059947745310006</v>
       </c>
       <c r="E4">
-        <v>1.05245858985716</v>
+        <v>1.068270156656193</v>
       </c>
       <c r="F4">
-        <v>1.059510972351719</v>
+        <v>1.074309229847248</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058668830409485</v>
+        <v>1.049188112050635</v>
       </c>
       <c r="J4">
-        <v>1.053906112286788</v>
+        <v>1.059762883915934</v>
       </c>
       <c r="K4">
-        <v>1.059042206681391</v>
+        <v>1.062372619905345</v>
       </c>
       <c r="L4">
-        <v>1.061962573080558</v>
+        <v>1.070675162312738</v>
       </c>
       <c r="M4">
-        <v>1.06894053057342</v>
+        <v>1.076700024608499</v>
       </c>
       <c r="N4">
-        <v>1.055402779850956</v>
+        <v>1.061267868767596</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.036465689136951</v>
+        <v>1.055566721972093</v>
       </c>
       <c r="D5">
-        <v>1.050330240046069</v>
+        <v>1.060136656572038</v>
       </c>
       <c r="E5">
-        <v>1.053435348188235</v>
+        <v>1.068500340605976</v>
       </c>
       <c r="F5">
-        <v>1.06048176048759</v>
+        <v>1.074537557184756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058995199540944</v>
+        <v>1.049248937207424</v>
       </c>
       <c r="J5">
-        <v>1.054549268658131</v>
+        <v>1.059911629580134</v>
       </c>
       <c r="K5">
-        <v>1.059646582946217</v>
+        <v>1.062510598199828</v>
       </c>
       <c r="L5">
-        <v>1.062719428356603</v>
+        <v>1.070854757690629</v>
       </c>
       <c r="M5">
-        <v>1.069693480922921</v>
+        <v>1.07687808312971</v>
       </c>
       <c r="N5">
-        <v>1.056046849578117</v>
+        <v>1.061416825667701</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.03664971849944</v>
+        <v>1.055607707985835</v>
       </c>
       <c r="D6">
-        <v>1.050468064894967</v>
+        <v>1.060168384315763</v>
       </c>
       <c r="E6">
-        <v>1.053598838321684</v>
+        <v>1.068539003892623</v>
       </c>
       <c r="F6">
-        <v>1.060644250059149</v>
+        <v>1.074575908217117</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059049693570492</v>
+        <v>1.049259138917536</v>
       </c>
       <c r="J6">
-        <v>1.054656839637189</v>
+        <v>1.059936605343508</v>
       </c>
       <c r="K6">
-        <v>1.059747658994007</v>
+        <v>1.062533764568139</v>
       </c>
       <c r="L6">
-        <v>1.062846052691589</v>
+        <v>1.070884917828352</v>
       </c>
       <c r="M6">
-        <v>1.069819449358089</v>
+        <v>1.07690798467206</v>
       </c>
       <c r="N6">
-        <v>1.056154573320304</v>
+        <v>1.061441836899524</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035380495449062</v>
+        <v>1.055325939299109</v>
       </c>
       <c r="D7">
-        <v>1.049517742399426</v>
+        <v>1.059950268966631</v>
       </c>
       <c r="E7">
-        <v>1.052471675818301</v>
+        <v>1.068273231420016</v>
       </c>
       <c r="F7">
-        <v>1.059523978411027</v>
+        <v>1.074312279837808</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058673211859168</v>
+        <v>1.049188925542738</v>
       </c>
       <c r="J7">
-        <v>1.053914734289623</v>
+        <v>1.059764871414213</v>
       </c>
       <c r="K7">
-        <v>1.05905030939255</v>
+        <v>1.062374463630436</v>
       </c>
       <c r="L7">
-        <v>1.061972716841944</v>
+        <v>1.070677561719911</v>
       </c>
       <c r="M7">
-        <v>1.068950622171285</v>
+        <v>1.076702403516979</v>
       </c>
       <c r="N7">
-        <v>1.055411414098024</v>
+        <v>1.061269859088351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.029978078443778</v>
+        <v>1.054149669564929</v>
       </c>
       <c r="D8">
-        <v>1.04547891351589</v>
+        <v>1.059039854849246</v>
       </c>
       <c r="E8">
-        <v>1.047684336824753</v>
+        <v>1.067164440655485</v>
       </c>
       <c r="F8">
-        <v>1.054765746445994</v>
+        <v>1.073212375882892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05705471289887</v>
+        <v>1.048893843241581</v>
       </c>
       <c r="J8">
-        <v>1.050751031574764</v>
+        <v>1.059047163266421</v>
       </c>
       <c r="K8">
-        <v>1.056076164504812</v>
+        <v>1.061708505355262</v>
       </c>
       <c r="L8">
-        <v>1.058254927294771</v>
+        <v>1.069811621881344</v>
       </c>
       <c r="M8">
-        <v>1.0652516665275</v>
+        <v>1.075843803228139</v>
       </c>
       <c r="N8">
-        <v>1.052243218562428</v>
+        <v>1.060551131712667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020065718423516</v>
+        <v>1.052082600977585</v>
       </c>
       <c r="D9">
-        <v>1.038095095346405</v>
+        <v>1.057440496687283</v>
       </c>
       <c r="E9">
-        <v>1.038942621015177</v>
+        <v>1.065218624443756</v>
       </c>
       <c r="F9">
-        <v>1.046076831645478</v>
+        <v>1.071281938374146</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054025835961364</v>
+        <v>1.04836787823633</v>
       </c>
       <c r="J9">
-        <v>1.044929272750764</v>
+        <v>1.057782973110943</v>
       </c>
       <c r="K9">
-        <v>1.050598928315037</v>
+        <v>1.060534683308834</v>
       </c>
       <c r="L9">
-        <v>1.051433968842761</v>
+        <v>1.068288743465133</v>
       </c>
       <c r="M9">
-        <v>1.058464099805255</v>
+        <v>1.074333560284504</v>
       </c>
       <c r="N9">
-        <v>1.046413192173133</v>
+        <v>1.059285146262163</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.013167388775146</v>
+        <v>1.050708456716209</v>
       </c>
       <c r="D10">
-        <v>1.032977367946975</v>
+        <v>1.056377658218578</v>
       </c>
       <c r="E10">
-        <v>1.032889750504172</v>
+        <v>1.063926909214781</v>
       </c>
       <c r="F10">
-        <v>1.040060548747534</v>
+        <v>1.070000288786057</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051879860648824</v>
+        <v>1.048013247566</v>
       </c>
       <c r="J10">
-        <v>1.04086815065274</v>
+        <v>1.056940592457271</v>
       </c>
       <c r="K10">
-        <v>1.046775683536381</v>
+        <v>1.059751995579499</v>
       </c>
       <c r="L10">
-        <v>1.046689520818786</v>
+        <v>1.06727560837766</v>
       </c>
       <c r="M10">
-        <v>1.053742303210782</v>
+        <v>1.073328650298563</v>
       </c>
       <c r="N10">
-        <v>1.042346302815912</v>
+        <v>1.058441569331341</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.010105281965568</v>
+        <v>1.050114381312047</v>
       </c>
       <c r="D11">
-        <v>1.030711291782483</v>
+        <v>1.055918265164034</v>
       </c>
       <c r="E11">
-        <v>1.030210776108806</v>
+        <v>1.063368908281199</v>
       </c>
       <c r="F11">
-        <v>1.037397836420407</v>
+        <v>1.069446602524543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050918706553534</v>
+        <v>1.047858751566771</v>
       </c>
       <c r="J11">
-        <v>1.0390636292485</v>
+        <v>1.056575945896657</v>
       </c>
       <c r="K11">
-        <v>1.045076382745669</v>
+        <v>1.059413065696093</v>
       </c>
       <c r="L11">
-        <v>1.044584597274302</v>
+        <v>1.066837430389362</v>
       </c>
       <c r="M11">
-        <v>1.051647342141377</v>
+        <v>1.072893987131827</v>
       </c>
       <c r="N11">
-        <v>1.040539218784297</v>
+        <v>1.058076404930785</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.0089560292003</v>
+        <v>1.04989385770303</v>
       </c>
       <c r="D12">
-        <v>1.029861707908224</v>
+        <v>1.055747751494567</v>
       </c>
       <c r="E12">
-        <v>1.029206544873402</v>
+        <v>1.063161842069549</v>
       </c>
       <c r="F12">
-        <v>1.036399716980883</v>
+        <v>1.06924113242857</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050556723645325</v>
+        <v>1.047801224551606</v>
       </c>
       <c r="J12">
-        <v>1.038386131451295</v>
+        <v>1.056440517680973</v>
       </c>
       <c r="K12">
-        <v>1.044438326794663</v>
+        <v>1.05928717015829</v>
       </c>
       <c r="L12">
-        <v>1.043794798612286</v>
+        <v>1.066674750615522</v>
       </c>
       <c r="M12">
-        <v>1.050861272847303</v>
+        <v>1.072732605931964</v>
       </c>
       <c r="N12">
-        <v>1.03986075886251</v>
+        <v>1.057940784391501</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.009203093584709</v>
+        <v>1.049941154295507</v>
       </c>
       <c r="D13">
-        <v>1.030044308002769</v>
+        <v>1.055784321554884</v>
       </c>
       <c r="E13">
-        <v>1.029422376555124</v>
+        <v>1.063206249387014</v>
       </c>
       <c r="F13">
-        <v>1.036614234292795</v>
+        <v>1.069285197669412</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050634597838839</v>
+        <v>1.047813570630425</v>
       </c>
       <c r="J13">
-        <v>1.038531788731683</v>
+        <v>1.056469566669464</v>
       </c>
       <c r="K13">
-        <v>1.044575507035786</v>
+        <v>1.059314175243772</v>
       </c>
       <c r="L13">
-        <v>1.04396457796352</v>
+        <v>1.06670964237855</v>
       </c>
       <c r="M13">
-        <v>1.051030250834443</v>
+        <v>1.072767219462187</v>
       </c>
       <c r="N13">
-        <v>1.040006622992943</v>
+        <v>1.057969874632888</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.0100105295249</v>
+        <v>1.050096149847133</v>
       </c>
       <c r="D14">
-        <v>1.030641227340596</v>
+        <v>1.055904167883581</v>
       </c>
       <c r="E14">
-        <v>1.03012795503251</v>
+        <v>1.063351788029394</v>
       </c>
       <c r="F14">
-        <v>1.037315519041391</v>
+        <v>1.069429614341473</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050888887287267</v>
+        <v>1.047853999224287</v>
       </c>
       <c r="J14">
-        <v>1.039007776133766</v>
+        <v>1.056564750988694</v>
       </c>
       <c r="K14">
-        <v>1.045023782448413</v>
+        <v>1.059402659162914</v>
       </c>
       <c r="L14">
-        <v>1.044519476220365</v>
+        <v>1.06682398160748</v>
       </c>
       <c r="M14">
-        <v>1.051582528735012</v>
+        <v>1.072880645832846</v>
       </c>
       <c r="N14">
-        <v>1.040483286351733</v>
+        <v>1.058065194124769</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.01050642960109</v>
+        <v>1.050191666642719</v>
       </c>
       <c r="D15">
-        <v>1.031007956701535</v>
+        <v>1.055978025825596</v>
       </c>
       <c r="E15">
-        <v>1.030561460964637</v>
+        <v>1.06344148577067</v>
       </c>
       <c r="F15">
-        <v>1.037746389178348</v>
+        <v>1.069518619933556</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051044899913882</v>
+        <v>1.047878890041884</v>
       </c>
       <c r="J15">
-        <v>1.039300081834305</v>
+        <v>1.056623399579193</v>
       </c>
       <c r="K15">
-        <v>1.045299062120355</v>
+        <v>1.05945717681323</v>
       </c>
       <c r="L15">
-        <v>1.044860305127418</v>
+        <v>1.066894440298348</v>
       </c>
       <c r="M15">
-        <v>1.051921747155733</v>
+        <v>1.072950541156594</v>
       </c>
       <c r="N15">
-        <v>1.040776007159895</v>
+        <v>1.058123926002993</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013368980966476</v>
+        <v>1.050747903437804</v>
       </c>
       <c r="D16">
-        <v>1.033126676509648</v>
+        <v>1.056408164109178</v>
       </c>
       <c r="E16">
-        <v>1.03306628698343</v>
+        <v>1.063963969871415</v>
       </c>
       <c r="F16">
-        <v>1.040236015500148</v>
+        <v>1.070037062172139</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051942962219153</v>
+        <v>1.0480234812406</v>
       </c>
       <c r="J16">
-        <v>1.040986915576645</v>
+        <v>1.056964795269322</v>
       </c>
       <c r="K16">
-        <v>1.046887514143703</v>
+        <v>1.059774488905839</v>
       </c>
       <c r="L16">
-        <v>1.04682812394772</v>
+        <v>1.067304699810254</v>
       </c>
       <c r="M16">
-        <v>1.053880248888803</v>
+        <v>1.073357507482566</v>
       </c>
       <c r="N16">
-        <v>1.042465236399632</v>
+        <v>1.058465806514161</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.015144090423571</v>
+        <v>1.051097068307654</v>
       </c>
       <c r="D17">
-        <v>1.034442055083814</v>
+        <v>1.056678200047138</v>
       </c>
       <c r="E17">
-        <v>1.034621669367458</v>
+        <v>1.064292065107743</v>
       </c>
       <c r="F17">
-        <v>1.041781981489686</v>
+        <v>1.070362610350544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052497626866591</v>
+        <v>1.048113928680681</v>
       </c>
       <c r="J17">
-        <v>1.042032490377867</v>
+        <v>1.057178974052744</v>
       </c>
       <c r="K17">
-        <v>1.047871987684793</v>
+        <v>1.059973525680849</v>
       </c>
       <c r="L17">
-        <v>1.048048716630053</v>
+        <v>1.06756218401274</v>
       </c>
       <c r="M17">
-        <v>1.055095042390273</v>
+        <v>1.073612913473777</v>
       </c>
       <c r="N17">
-        <v>1.043512296037001</v>
+        <v>1.058680289456023</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.016172277416294</v>
+        <v>1.051300820683532</v>
       </c>
       <c r="D18">
-        <v>1.035204486469446</v>
+        <v>1.056835786735132</v>
       </c>
       <c r="E18">
-        <v>1.035523327113877</v>
+        <v>1.064483564774226</v>
       </c>
       <c r="F18">
-        <v>1.042678186683334</v>
+        <v>1.07055262013105</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052818084340142</v>
+        <v>1.048166594536654</v>
       </c>
       <c r="J18">
-        <v>1.042637936751974</v>
+        <v>1.057303911425504</v>
       </c>
       <c r="K18">
-        <v>1.048442006978658</v>
+        <v>1.060089618360339</v>
       </c>
       <c r="L18">
-        <v>1.048755814872329</v>
+        <v>1.067712419896691</v>
       </c>
       <c r="M18">
-        <v>1.055798772546225</v>
+        <v>1.073761932664271</v>
       </c>
       <c r="N18">
-        <v>1.044118602214405</v>
+        <v>1.058805404254182</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.016521657353855</v>
+        <v>1.051370310268492</v>
       </c>
       <c r="D19">
-        <v>1.035463650587113</v>
+        <v>1.056889533120742</v>
       </c>
       <c r="E19">
-        <v>1.035829836631424</v>
+        <v>1.064548882742808</v>
       </c>
       <c r="F19">
-        <v>1.042982843541019</v>
+        <v>1.070617429368363</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052926836492033</v>
+        <v>1.04818453684334</v>
       </c>
       <c r="J19">
-        <v>1.042843637562682</v>
+        <v>1.057346513585855</v>
       </c>
       <c r="K19">
-        <v>1.048635663339928</v>
+        <v>1.060129202568869</v>
       </c>
       <c r="L19">
-        <v>1.048996104044108</v>
+        <v>1.06776365483621</v>
       </c>
       <c r="M19">
-        <v>1.056037915577462</v>
+        <v>1.073812751977241</v>
       </c>
       <c r="N19">
-        <v>1.044324595143858</v>
+        <v>1.058848066914487</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.014954387159017</v>
+        <v>1.051059596858707</v>
       </c>
       <c r="D20">
-        <v>1.034301426986765</v>
+        <v>1.056649219532449</v>
       </c>
       <c r="E20">
-        <v>1.034455370702116</v>
+        <v>1.064256850417072</v>
       </c>
       <c r="F20">
-        <v>1.041616688932096</v>
+        <v>1.070327669372361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052438435239829</v>
+        <v>1.048104233893139</v>
       </c>
       <c r="J20">
-        <v>1.041920769381051</v>
+        <v>1.057155993599898</v>
       </c>
       <c r="K20">
-        <v>1.047766800145508</v>
+        <v>1.059952171127109</v>
       </c>
       <c r="L20">
-        <v>1.047918262946768</v>
+        <v>1.067534553242658</v>
       </c>
       <c r="M20">
-        <v>1.054965209366979</v>
+        <v>1.07358550614217</v>
       </c>
       <c r="N20">
-        <v>1.043400416383555</v>
+        <v>1.058657276368297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009773091631362</v>
+        <v>1.050050503575995</v>
       </c>
       <c r="D21">
-        <v>1.030465669344464</v>
+        <v>1.055868872652388</v>
       </c>
       <c r="E21">
-        <v>1.029920435593317</v>
+        <v>1.06330892498608</v>
       </c>
       <c r="F21">
-        <v>1.037109261958965</v>
+        <v>1.069387081870845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050814143925927</v>
+        <v>1.047842097879084</v>
       </c>
       <c r="J21">
-        <v>1.038867811489277</v>
+        <v>1.056536721078948</v>
       </c>
       <c r="K21">
-        <v>1.044891968196601</v>
+        <v>1.059376602896158</v>
       </c>
       <c r="L21">
-        <v>1.044356294447527</v>
+        <v>1.066790309360509</v>
       </c>
       <c r="M21">
-        <v>1.05142011774727</v>
+        <v>1.072847242592532</v>
       </c>
       <c r="N21">
-        <v>1.040343122941396</v>
+        <v>1.058037124409336</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.006446537300669</v>
+        <v>1.049416871482857</v>
       </c>
       <c r="D22">
-        <v>1.028008304265008</v>
+        <v>1.055378963772218</v>
       </c>
       <c r="E22">
-        <v>1.027016029005737</v>
+        <v>1.062714085727412</v>
       </c>
       <c r="F22">
-        <v>1.034222568165256</v>
+        <v>1.068796818406927</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049764055465998</v>
+        <v>1.047676471045265</v>
       </c>
       <c r="J22">
-        <v>1.036906369952708</v>
+        <v>1.056147463200223</v>
       </c>
       <c r="K22">
-        <v>1.043044607668968</v>
+        <v>1.059014710003198</v>
       </c>
       <c r="L22">
-        <v>1.042070641710565</v>
+        <v>1.066322831737228</v>
       </c>
       <c r="M22">
-        <v>1.04914524629008</v>
+        <v>1.072383484629913</v>
       </c>
       <c r="N22">
-        <v>1.038378895932864</v>
+        <v>1.057647313739775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.008216734027388</v>
+        <v>1.049752693149122</v>
       </c>
       <c r="D23">
-        <v>1.029315448069271</v>
+        <v>1.055638604332922</v>
       </c>
       <c r="E23">
-        <v>1.02856089142895</v>
+        <v>1.063029310796794</v>
       </c>
       <c r="F23">
-        <v>1.035757998195655</v>
+        <v>1.069109621336536</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050323519628204</v>
+        <v>1.047764349655453</v>
       </c>
       <c r="J23">
-        <v>1.037950247252492</v>
+        <v>1.056353805952871</v>
       </c>
       <c r="K23">
-        <v>1.044027801952572</v>
+        <v>1.059206556829593</v>
       </c>
       <c r="L23">
-        <v>1.043286799079086</v>
+        <v>1.066570606555365</v>
       </c>
       <c r="M23">
-        <v>1.050355670160874</v>
+        <v>1.072629291406426</v>
       </c>
       <c r="N23">
-        <v>1.039424255658148</v>
+        <v>1.057853949522799</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.015040128120982</v>
+        <v>1.051076528314349</v>
       </c>
       <c r="D24">
-        <v>1.034364985600406</v>
+        <v>1.056662314334797</v>
       </c>
       <c r="E24">
-        <v>1.034530531095149</v>
+        <v>1.064272762026984</v>
       </c>
       <c r="F24">
-        <v>1.041691394585753</v>
+        <v>1.070343457316458</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052465190860052</v>
+        <v>1.048108614830359</v>
       </c>
       <c r="J24">
-        <v>1.041971264927043</v>
+        <v>1.057166377445026</v>
       </c>
       <c r="K24">
-        <v>1.047814342849175</v>
+        <v>1.059961820337401</v>
       </c>
       <c r="L24">
-        <v>1.047977224323073</v>
+        <v>1.067547038244907</v>
       </c>
       <c r="M24">
-        <v>1.055023890249435</v>
+        <v>1.073597890196124</v>
       </c>
       <c r="N24">
-        <v>1.043450983639014</v>
+        <v>1.058667674959676</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022677425212628</v>
+        <v>1.052616306700964</v>
       </c>
       <c r="D25">
-        <v>1.040037185176848</v>
+        <v>1.057853377142208</v>
       </c>
       <c r="E25">
-        <v>1.041240741865577</v>
+        <v>1.065720703772174</v>
       </c>
       <c r="F25">
-        <v>1.04836108646736</v>
+        <v>1.071780075021407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054830610102554</v>
+        <v>1.048504558643713</v>
       </c>
       <c r="J25">
-        <v>1.046464984569388</v>
+        <v>1.058109729265976</v>
       </c>
       <c r="K25">
-        <v>1.052044215814667</v>
+        <v>1.060838174521405</v>
       </c>
       <c r="L25">
-        <v>1.053230887166645</v>
+        <v>1.068682077311681</v>
       </c>
       <c r="M25">
-        <v>1.06025233639388</v>
+        <v>1.074723662673717</v>
       </c>
       <c r="N25">
-        <v>1.047951084878688</v>
+        <v>1.059612366448415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053847231077304</v>
+        <v>1.028561539836526</v>
       </c>
       <c r="D2">
-        <v>1.058805806406875</v>
+        <v>1.044421590740383</v>
       </c>
       <c r="E2">
-        <v>1.066879532602205</v>
+        <v>1.046431804472883</v>
       </c>
       <c r="F2">
-        <v>1.072929736507548</v>
+        <v>1.053520797131553</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048817468724508</v>
+        <v>1.056626312486673</v>
       </c>
       <c r="J2">
-        <v>1.058862427238636</v>
+        <v>1.049920293854681</v>
       </c>
       <c r="K2">
-        <v>1.061537036081128</v>
+        <v>1.055294899580956</v>
       </c>
       <c r="L2">
-        <v>1.069588895151856</v>
+        <v>1.057280060442319</v>
       </c>
       <c r="M2">
-        <v>1.075622945727848</v>
+        <v>1.06428165338597</v>
       </c>
       <c r="N2">
-        <v>1.060366133338532</v>
+        <v>1.051411301099495</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054742590320598</v>
+        <v>1.032722369522322</v>
       </c>
       <c r="D3">
-        <v>1.059498739917605</v>
+        <v>1.047529276466705</v>
       </c>
       <c r="E3">
-        <v>1.067723206866749</v>
+        <v>1.050114100762454</v>
       </c>
       <c r="F3">
-        <v>1.073766675267965</v>
+        <v>1.057180765893748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049042978546626</v>
+        <v>1.057880008787573</v>
       </c>
       <c r="J3">
-        <v>1.059409094889193</v>
+        <v>1.052359066614955</v>
       </c>
       <c r="K3">
-        <v>1.062044381979079</v>
+        <v>1.057588091399456</v>
       </c>
       <c r="L3">
-        <v>1.070248177186204</v>
+        <v>1.060143533735532</v>
       </c>
       <c r="M3">
-        <v>1.076276672889828</v>
+        <v>1.067130773925814</v>
       </c>
       <c r="N3">
-        <v>1.060913577319857</v>
+        <v>1.053853537196821</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05532267906609</v>
+        <v>1.03536575397447</v>
       </c>
       <c r="D4">
-        <v>1.059947745310006</v>
+        <v>1.049506708048809</v>
       </c>
       <c r="E4">
-        <v>1.068270156656193</v>
+        <v>1.052458589857159</v>
       </c>
       <c r="F4">
-        <v>1.074309229847248</v>
+        <v>1.059510972351718</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049188112050635</v>
+        <v>1.058668830409484</v>
       </c>
       <c r="J4">
-        <v>1.059762883915934</v>
+        <v>1.053906112286787</v>
       </c>
       <c r="K4">
-        <v>1.062372619905345</v>
+        <v>1.05904220668139</v>
       </c>
       <c r="L4">
-        <v>1.070675162312738</v>
+        <v>1.061962573080557</v>
       </c>
       <c r="M4">
-        <v>1.076700024608499</v>
+        <v>1.068940530573419</v>
       </c>
       <c r="N4">
-        <v>1.061267868767596</v>
+        <v>1.055402779850955</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055566721972093</v>
+        <v>1.03646568913695</v>
       </c>
       <c r="D5">
-        <v>1.060136656572038</v>
+        <v>1.050330240046068</v>
       </c>
       <c r="E5">
-        <v>1.068500340605976</v>
+        <v>1.053435348188233</v>
       </c>
       <c r="F5">
-        <v>1.074537557184756</v>
+        <v>1.060481760487589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049248937207424</v>
+        <v>1.058995199540944</v>
       </c>
       <c r="J5">
-        <v>1.059911629580134</v>
+        <v>1.054549268658129</v>
       </c>
       <c r="K5">
-        <v>1.062510598199828</v>
+        <v>1.059646582946216</v>
       </c>
       <c r="L5">
-        <v>1.070854757690629</v>
+        <v>1.062719428356602</v>
       </c>
       <c r="M5">
-        <v>1.07687808312971</v>
+        <v>1.06969348092292</v>
       </c>
       <c r="N5">
-        <v>1.061416825667701</v>
+        <v>1.056046849578116</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055607707985835</v>
+        <v>1.03664971849944</v>
       </c>
       <c r="D6">
-        <v>1.060168384315763</v>
+        <v>1.050468064894967</v>
       </c>
       <c r="E6">
-        <v>1.068539003892623</v>
+        <v>1.053598838321683</v>
       </c>
       <c r="F6">
-        <v>1.074575908217117</v>
+        <v>1.060644250059148</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049259138917536</v>
+        <v>1.059049693570492</v>
       </c>
       <c r="J6">
-        <v>1.059936605343508</v>
+        <v>1.054656839637188</v>
       </c>
       <c r="K6">
-        <v>1.062533764568139</v>
+        <v>1.059747658994007</v>
       </c>
       <c r="L6">
-        <v>1.070884917828352</v>
+        <v>1.062846052691588</v>
       </c>
       <c r="M6">
-        <v>1.07690798467206</v>
+        <v>1.069819449358089</v>
       </c>
       <c r="N6">
-        <v>1.061441836899524</v>
+        <v>1.056154573320303</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055325939299109</v>
+        <v>1.035380495449062</v>
       </c>
       <c r="D7">
-        <v>1.059950268966631</v>
+        <v>1.049517742399426</v>
       </c>
       <c r="E7">
-        <v>1.068273231420016</v>
+        <v>1.052471675818301</v>
       </c>
       <c r="F7">
-        <v>1.074312279837808</v>
+        <v>1.059523978411028</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049188925542738</v>
+        <v>1.058673211859168</v>
       </c>
       <c r="J7">
-        <v>1.059764871414213</v>
+        <v>1.053914734289623</v>
       </c>
       <c r="K7">
-        <v>1.062374463630436</v>
+        <v>1.05905030939255</v>
       </c>
       <c r="L7">
-        <v>1.070677561719911</v>
+        <v>1.061972716841944</v>
       </c>
       <c r="M7">
-        <v>1.076702403516979</v>
+        <v>1.068950622171285</v>
       </c>
       <c r="N7">
-        <v>1.061269859088351</v>
+        <v>1.055411414098024</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.054149669564929</v>
+        <v>1.029978078443777</v>
       </c>
       <c r="D8">
-        <v>1.059039854849246</v>
+        <v>1.045478913515889</v>
       </c>
       <c r="E8">
-        <v>1.067164440655485</v>
+        <v>1.047684336824753</v>
       </c>
       <c r="F8">
-        <v>1.073212375882892</v>
+        <v>1.054765746445993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048893843241581</v>
+        <v>1.05705471289887</v>
       </c>
       <c r="J8">
-        <v>1.059047163266421</v>
+        <v>1.050751031574764</v>
       </c>
       <c r="K8">
-        <v>1.061708505355262</v>
+        <v>1.056076164504812</v>
       </c>
       <c r="L8">
-        <v>1.069811621881344</v>
+        <v>1.058254927294771</v>
       </c>
       <c r="M8">
-        <v>1.075843803228139</v>
+        <v>1.0652516665275</v>
       </c>
       <c r="N8">
-        <v>1.060551131712667</v>
+        <v>1.052243218562428</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052082600977585</v>
+        <v>1.020065718423515</v>
       </c>
       <c r="D9">
-        <v>1.057440496687283</v>
+        <v>1.038095095346404</v>
       </c>
       <c r="E9">
-        <v>1.065218624443756</v>
+        <v>1.038942621015176</v>
       </c>
       <c r="F9">
-        <v>1.071281938374146</v>
+        <v>1.046076831645477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04836787823633</v>
+        <v>1.054025835961364</v>
       </c>
       <c r="J9">
-        <v>1.057782973110943</v>
+        <v>1.044929272750763</v>
       </c>
       <c r="K9">
-        <v>1.060534683308834</v>
+        <v>1.050598928315037</v>
       </c>
       <c r="L9">
-        <v>1.068288743465133</v>
+        <v>1.051433968842761</v>
       </c>
       <c r="M9">
-        <v>1.074333560284504</v>
+        <v>1.058464099805254</v>
       </c>
       <c r="N9">
-        <v>1.059285146262163</v>
+        <v>1.046413192173132</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050708456716209</v>
+        <v>1.013167388775146</v>
       </c>
       <c r="D10">
-        <v>1.056377658218578</v>
+        <v>1.032977367946975</v>
       </c>
       <c r="E10">
-        <v>1.063926909214781</v>
+        <v>1.032889750504172</v>
       </c>
       <c r="F10">
-        <v>1.070000288786057</v>
+        <v>1.040060548747534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048013247566</v>
+        <v>1.051879860648824</v>
       </c>
       <c r="J10">
-        <v>1.056940592457271</v>
+        <v>1.04086815065274</v>
       </c>
       <c r="K10">
-        <v>1.059751995579499</v>
+        <v>1.046775683536381</v>
       </c>
       <c r="L10">
-        <v>1.06727560837766</v>
+        <v>1.046689520818786</v>
       </c>
       <c r="M10">
-        <v>1.073328650298563</v>
+        <v>1.053742303210782</v>
       </c>
       <c r="N10">
-        <v>1.058441569331341</v>
+        <v>1.042346302815912</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050114381312047</v>
+        <v>1.010105281965569</v>
       </c>
       <c r="D11">
-        <v>1.055918265164034</v>
+        <v>1.030711291782484</v>
       </c>
       <c r="E11">
-        <v>1.063368908281199</v>
+        <v>1.030210776108807</v>
       </c>
       <c r="F11">
-        <v>1.069446602524543</v>
+        <v>1.037397836420408</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047858751566771</v>
+        <v>1.050918706553534</v>
       </c>
       <c r="J11">
-        <v>1.056575945896657</v>
+        <v>1.039063629248501</v>
       </c>
       <c r="K11">
-        <v>1.059413065696093</v>
+        <v>1.04507638274567</v>
       </c>
       <c r="L11">
-        <v>1.066837430389362</v>
+        <v>1.044584597274303</v>
       </c>
       <c r="M11">
-        <v>1.072893987131827</v>
+        <v>1.051647342141378</v>
       </c>
       <c r="N11">
-        <v>1.058076404930785</v>
+        <v>1.040539218784298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04989385770303</v>
+        <v>1.008956029200301</v>
       </c>
       <c r="D12">
-        <v>1.055747751494567</v>
+        <v>1.029861707908224</v>
       </c>
       <c r="E12">
-        <v>1.063161842069549</v>
+        <v>1.029206544873402</v>
       </c>
       <c r="F12">
-        <v>1.06924113242857</v>
+        <v>1.036399716980883</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047801224551606</v>
+        <v>1.050556723645325</v>
       </c>
       <c r="J12">
-        <v>1.056440517680973</v>
+        <v>1.038386131451295</v>
       </c>
       <c r="K12">
-        <v>1.05928717015829</v>
+        <v>1.044438326794663</v>
       </c>
       <c r="L12">
-        <v>1.066674750615522</v>
+        <v>1.043794798612286</v>
       </c>
       <c r="M12">
-        <v>1.072732605931964</v>
+        <v>1.050861272847303</v>
       </c>
       <c r="N12">
-        <v>1.057940784391501</v>
+        <v>1.03986075886251</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049941154295507</v>
+        <v>1.009203093584709</v>
       </c>
       <c r="D13">
-        <v>1.055784321554884</v>
+        <v>1.030044308002768</v>
       </c>
       <c r="E13">
-        <v>1.063206249387014</v>
+        <v>1.029422376555124</v>
       </c>
       <c r="F13">
-        <v>1.069285197669412</v>
+        <v>1.036614234292795</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047813570630425</v>
+        <v>1.050634597838839</v>
       </c>
       <c r="J13">
-        <v>1.056469566669464</v>
+        <v>1.038531788731683</v>
       </c>
       <c r="K13">
-        <v>1.059314175243772</v>
+        <v>1.044575507035786</v>
       </c>
       <c r="L13">
-        <v>1.06670964237855</v>
+        <v>1.04396457796352</v>
       </c>
       <c r="M13">
-        <v>1.072767219462187</v>
+        <v>1.051030250834443</v>
       </c>
       <c r="N13">
-        <v>1.057969874632888</v>
+        <v>1.040006622992943</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050096149847133</v>
+        <v>1.0100105295249</v>
       </c>
       <c r="D14">
-        <v>1.055904167883581</v>
+        <v>1.030641227340596</v>
       </c>
       <c r="E14">
-        <v>1.063351788029394</v>
+        <v>1.03012795503251</v>
       </c>
       <c r="F14">
-        <v>1.069429614341473</v>
+        <v>1.037315519041391</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047853999224287</v>
+        <v>1.050888887287267</v>
       </c>
       <c r="J14">
-        <v>1.056564750988694</v>
+        <v>1.039007776133766</v>
       </c>
       <c r="K14">
-        <v>1.059402659162914</v>
+        <v>1.045023782448413</v>
       </c>
       <c r="L14">
-        <v>1.06682398160748</v>
+        <v>1.044519476220365</v>
       </c>
       <c r="M14">
-        <v>1.072880645832846</v>
+        <v>1.051582528735011</v>
       </c>
       <c r="N14">
-        <v>1.058065194124769</v>
+        <v>1.040483286351734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050191666642719</v>
+        <v>1.01050642960109</v>
       </c>
       <c r="D15">
-        <v>1.055978025825596</v>
+        <v>1.031007956701535</v>
       </c>
       <c r="E15">
-        <v>1.06344148577067</v>
+        <v>1.030561460964638</v>
       </c>
       <c r="F15">
-        <v>1.069518619933556</v>
+        <v>1.037746389178349</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047878890041884</v>
+        <v>1.051044899913882</v>
       </c>
       <c r="J15">
-        <v>1.056623399579193</v>
+        <v>1.039300081834305</v>
       </c>
       <c r="K15">
-        <v>1.05945717681323</v>
+        <v>1.045299062120355</v>
       </c>
       <c r="L15">
-        <v>1.066894440298348</v>
+        <v>1.044860305127418</v>
       </c>
       <c r="M15">
-        <v>1.072950541156594</v>
+        <v>1.051921747155734</v>
       </c>
       <c r="N15">
-        <v>1.058123926002993</v>
+        <v>1.040776007159895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050747903437804</v>
+        <v>1.013368980966476</v>
       </c>
       <c r="D16">
-        <v>1.056408164109178</v>
+        <v>1.033126676509648</v>
       </c>
       <c r="E16">
-        <v>1.063963969871415</v>
+        <v>1.03306628698343</v>
       </c>
       <c r="F16">
-        <v>1.070037062172139</v>
+        <v>1.040236015500148</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0480234812406</v>
+        <v>1.051942962219153</v>
       </c>
       <c r="J16">
-        <v>1.056964795269322</v>
+        <v>1.040986915576645</v>
       </c>
       <c r="K16">
-        <v>1.059774488905839</v>
+        <v>1.046887514143703</v>
       </c>
       <c r="L16">
-        <v>1.067304699810254</v>
+        <v>1.046828123947719</v>
       </c>
       <c r="M16">
-        <v>1.073357507482566</v>
+        <v>1.053880248888803</v>
       </c>
       <c r="N16">
-        <v>1.058465806514161</v>
+        <v>1.042465236399632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051097068307654</v>
+        <v>1.015144090423571</v>
       </c>
       <c r="D17">
-        <v>1.056678200047138</v>
+        <v>1.034442055083814</v>
       </c>
       <c r="E17">
-        <v>1.064292065107743</v>
+        <v>1.034621669367457</v>
       </c>
       <c r="F17">
-        <v>1.070362610350544</v>
+        <v>1.041781981489686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048113928680681</v>
+        <v>1.052497626866591</v>
       </c>
       <c r="J17">
-        <v>1.057178974052744</v>
+        <v>1.042032490377867</v>
       </c>
       <c r="K17">
-        <v>1.059973525680849</v>
+        <v>1.047871987684792</v>
       </c>
       <c r="L17">
-        <v>1.06756218401274</v>
+        <v>1.048048716630052</v>
       </c>
       <c r="M17">
-        <v>1.073612913473777</v>
+        <v>1.055095042390272</v>
       </c>
       <c r="N17">
-        <v>1.058680289456023</v>
+        <v>1.043512296037001</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051300820683532</v>
+        <v>1.016172277416293</v>
       </c>
       <c r="D18">
-        <v>1.056835786735132</v>
+        <v>1.035204486469445</v>
       </c>
       <c r="E18">
-        <v>1.064483564774226</v>
+        <v>1.035523327113876</v>
       </c>
       <c r="F18">
-        <v>1.07055262013105</v>
+        <v>1.042678186683332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048166594536654</v>
+        <v>1.052818084340141</v>
       </c>
       <c r="J18">
-        <v>1.057303911425504</v>
+        <v>1.042637936751973</v>
       </c>
       <c r="K18">
-        <v>1.060089618360339</v>
+        <v>1.048442006978657</v>
       </c>
       <c r="L18">
-        <v>1.067712419896691</v>
+        <v>1.048755814872327</v>
       </c>
       <c r="M18">
-        <v>1.073761932664271</v>
+        <v>1.055798772546223</v>
       </c>
       <c r="N18">
-        <v>1.058805404254182</v>
+        <v>1.044118602214404</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051370310268492</v>
+        <v>1.016521657353855</v>
       </c>
       <c r="D19">
-        <v>1.056889533120742</v>
+        <v>1.035463650587114</v>
       </c>
       <c r="E19">
-        <v>1.064548882742808</v>
+        <v>1.035829836631425</v>
       </c>
       <c r="F19">
-        <v>1.070617429368363</v>
+        <v>1.04298284354102</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04818453684334</v>
+        <v>1.052926836492033</v>
       </c>
       <c r="J19">
-        <v>1.057346513585855</v>
+        <v>1.042843637562682</v>
       </c>
       <c r="K19">
-        <v>1.060129202568869</v>
+        <v>1.048635663339928</v>
       </c>
       <c r="L19">
-        <v>1.06776365483621</v>
+        <v>1.048996104044109</v>
       </c>
       <c r="M19">
-        <v>1.073812751977241</v>
+        <v>1.056037915577462</v>
       </c>
       <c r="N19">
-        <v>1.058848066914487</v>
+        <v>1.044324595143858</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051059596858707</v>
+        <v>1.014954387159017</v>
       </c>
       <c r="D20">
-        <v>1.056649219532449</v>
+        <v>1.034301426986765</v>
       </c>
       <c r="E20">
-        <v>1.064256850417072</v>
+        <v>1.034455370702116</v>
       </c>
       <c r="F20">
-        <v>1.070327669372361</v>
+        <v>1.041616688932096</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048104233893139</v>
+        <v>1.052438435239829</v>
       </c>
       <c r="J20">
-        <v>1.057155993599898</v>
+        <v>1.041920769381052</v>
       </c>
       <c r="K20">
-        <v>1.059952171127109</v>
+        <v>1.047766800145508</v>
       </c>
       <c r="L20">
-        <v>1.067534553242658</v>
+        <v>1.047918262946768</v>
       </c>
       <c r="M20">
-        <v>1.07358550614217</v>
+        <v>1.05496520936698</v>
       </c>
       <c r="N20">
-        <v>1.058657276368297</v>
+        <v>1.043400416383556</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050050503575995</v>
+        <v>1.00977309163136</v>
       </c>
       <c r="D21">
-        <v>1.055868872652388</v>
+        <v>1.030465669344462</v>
       </c>
       <c r="E21">
-        <v>1.06330892498608</v>
+        <v>1.029920435593314</v>
       </c>
       <c r="F21">
-        <v>1.069387081870845</v>
+        <v>1.037109261958963</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047842097879084</v>
+        <v>1.050814143925927</v>
       </c>
       <c r="J21">
-        <v>1.056536721078948</v>
+        <v>1.038867811489275</v>
       </c>
       <c r="K21">
-        <v>1.059376602896158</v>
+        <v>1.044891968196599</v>
       </c>
       <c r="L21">
-        <v>1.066790309360509</v>
+        <v>1.044356294447525</v>
       </c>
       <c r="M21">
-        <v>1.072847242592532</v>
+        <v>1.051420117747268</v>
       </c>
       <c r="N21">
-        <v>1.058037124409336</v>
+        <v>1.040343122941393</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049416871482857</v>
+        <v>1.006446537300669</v>
       </c>
       <c r="D22">
-        <v>1.055378963772218</v>
+        <v>1.028008304265007</v>
       </c>
       <c r="E22">
-        <v>1.062714085727412</v>
+        <v>1.027016029005736</v>
       </c>
       <c r="F22">
-        <v>1.068796818406927</v>
+        <v>1.034222568165255</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047676471045265</v>
+        <v>1.049764055465998</v>
       </c>
       <c r="J22">
-        <v>1.056147463200223</v>
+        <v>1.036906369952708</v>
       </c>
       <c r="K22">
-        <v>1.059014710003198</v>
+        <v>1.043044607668967</v>
       </c>
       <c r="L22">
-        <v>1.066322831737228</v>
+        <v>1.042070641710564</v>
       </c>
       <c r="M22">
-        <v>1.072383484629913</v>
+        <v>1.049145246290079</v>
       </c>
       <c r="N22">
-        <v>1.057647313739775</v>
+        <v>1.038378895932863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049752693149122</v>
+        <v>1.008216734027388</v>
       </c>
       <c r="D23">
-        <v>1.055638604332922</v>
+        <v>1.029315448069271</v>
       </c>
       <c r="E23">
-        <v>1.063029310796794</v>
+        <v>1.02856089142895</v>
       </c>
       <c r="F23">
-        <v>1.069109621336536</v>
+        <v>1.035757998195655</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047764349655453</v>
+        <v>1.050323519628204</v>
       </c>
       <c r="J23">
-        <v>1.056353805952871</v>
+        <v>1.037950247252492</v>
       </c>
       <c r="K23">
-        <v>1.059206556829593</v>
+        <v>1.044027801952572</v>
       </c>
       <c r="L23">
-        <v>1.066570606555365</v>
+        <v>1.043286799079087</v>
       </c>
       <c r="M23">
-        <v>1.072629291406426</v>
+        <v>1.050355670160874</v>
       </c>
       <c r="N23">
-        <v>1.057853949522799</v>
+        <v>1.039424255658148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051076528314349</v>
+        <v>1.015040128120981</v>
       </c>
       <c r="D24">
-        <v>1.056662314334797</v>
+        <v>1.034364985600406</v>
       </c>
       <c r="E24">
-        <v>1.064272762026984</v>
+        <v>1.034530531095148</v>
       </c>
       <c r="F24">
-        <v>1.070343457316458</v>
+        <v>1.041691394585752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048108614830359</v>
+        <v>1.052465190860051</v>
       </c>
       <c r="J24">
-        <v>1.057166377445026</v>
+        <v>1.041971264927043</v>
       </c>
       <c r="K24">
-        <v>1.059961820337401</v>
+        <v>1.047814342849175</v>
       </c>
       <c r="L24">
-        <v>1.067547038244907</v>
+        <v>1.047977224323072</v>
       </c>
       <c r="M24">
-        <v>1.073597890196124</v>
+        <v>1.055023890249435</v>
       </c>
       <c r="N24">
-        <v>1.058667674959676</v>
+        <v>1.043450983639014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052616306700964</v>
+        <v>1.022677425212628</v>
       </c>
       <c r="D25">
-        <v>1.057853377142208</v>
+        <v>1.040037185176848</v>
       </c>
       <c r="E25">
-        <v>1.065720703772174</v>
+        <v>1.041240741865577</v>
       </c>
       <c r="F25">
-        <v>1.071780075021407</v>
+        <v>1.04836108646736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048504558643713</v>
+        <v>1.054830610102554</v>
       </c>
       <c r="J25">
-        <v>1.058109729265976</v>
+        <v>1.046464984569388</v>
       </c>
       <c r="K25">
-        <v>1.060838174521405</v>
+        <v>1.052044215814667</v>
       </c>
       <c r="L25">
-        <v>1.068682077311681</v>
+        <v>1.053230887166645</v>
       </c>
       <c r="M25">
-        <v>1.074723662673717</v>
+        <v>1.06025233639388</v>
       </c>
       <c r="N25">
-        <v>1.059612366448415</v>
+        <v>1.047951084878688</v>
       </c>
     </row>
   </sheetData>
